--- a/simulation_data/iterative_algorithm/i_error_level_6_percent_water_20.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_6_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.61043220302656</v>
+        <v>89.52695896386109</v>
       </c>
       <c r="D2" t="n">
-        <v>7.284315932787301</v>
+        <v>6.455558607308869</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>90.06536381606954</v>
+        <v>89.10085814526745</v>
       </c>
       <c r="D3" t="n">
-        <v>6.849044405657766</v>
+        <v>6.863208634855466</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.8859195585126</v>
+        <v>88.12374681752929</v>
       </c>
       <c r="D4" t="n">
-        <v>7.809772156230546</v>
+        <v>6.00892527374542</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.74571635067572</v>
+        <v>85.89407422397944</v>
       </c>
       <c r="D5" t="n">
-        <v>6.465319550582995</v>
+        <v>6.687722522846714</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.43993674039544</v>
+        <v>84.39061017130581</v>
       </c>
       <c r="D6" t="n">
-        <v>7.968436422902266</v>
+        <v>7.02687165635793</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.10567490202973</v>
+        <v>84.58139225840179</v>
       </c>
       <c r="D7" t="n">
-        <v>6.56779058806345</v>
+        <v>6.429272195747918</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.0182732058161</v>
+        <v>84.36383756300538</v>
       </c>
       <c r="D8" t="n">
-        <v>7.856729961169843</v>
+        <v>5.938158972024483</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.2301306998246</v>
+        <v>82.86708902172437</v>
       </c>
       <c r="D9" t="n">
-        <v>6.504018956758506</v>
+        <v>6.053543051659135</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.91353953802813</v>
+        <v>80.40711156335365</v>
       </c>
       <c r="D10" t="n">
-        <v>7.548906431316387</v>
+        <v>7.599847995209226</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.23043247549778</v>
+        <v>81.51215560631006</v>
       </c>
       <c r="D11" t="n">
-        <v>6.760309030381955</v>
+        <v>7.502078732967651</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.57144287411126</v>
+        <v>78.5616014598337</v>
       </c>
       <c r="D12" t="n">
-        <v>6.374882832201338</v>
+        <v>7.057170221232539</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.12460066749823</v>
+        <v>79.26342295860782</v>
       </c>
       <c r="D13" t="n">
-        <v>7.229758064235602</v>
+        <v>6.905281274570498</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.77546301384173</v>
+        <v>77.58691112752608</v>
       </c>
       <c r="D14" t="n">
-        <v>7.810425654857426</v>
+        <v>6.751251063913308</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.71070617600421</v>
+        <v>76.05380498589189</v>
       </c>
       <c r="D15" t="n">
-        <v>7.5470507733919</v>
+        <v>7.227012464175322</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.4018856188449</v>
+        <v>75.36085936777702</v>
       </c>
       <c r="D16" t="n">
-        <v>7.90655474227368</v>
+        <v>6.819156446285857</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.94695542387119</v>
+        <v>74.65470078730307</v>
       </c>
       <c r="D17" t="n">
-        <v>6.683938539511703</v>
+        <v>6.923285364109753</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.55273019068953</v>
+        <v>74.14894674950393</v>
       </c>
       <c r="D18" t="n">
-        <v>7.370675310765728</v>
+        <v>6.057252829050603</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.00692141214432</v>
+        <v>73.74867761837017</v>
       </c>
       <c r="D19" t="n">
-        <v>7.230879664548127</v>
+        <v>7.383854390989987</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.34575941393253</v>
+        <v>71.85986904710147</v>
       </c>
       <c r="D20" t="n">
-        <v>7.742482500059856</v>
+        <v>6.646886246621228</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.38203650996766</v>
+        <v>69.595898489616</v>
       </c>
       <c r="D21" t="n">
-        <v>7.157220683064969</v>
+        <v>6.789627571838177</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.31267264123038</v>
+        <v>70.02058545242674</v>
       </c>
       <c r="D22" t="n">
-        <v>7.388615743560051</v>
+        <v>7.082392738683779</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.14096467499481</v>
+        <v>69.81587924331455</v>
       </c>
       <c r="D23" t="n">
-        <v>7.011927497453445</v>
+        <v>7.297719352210441</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.24643678995022</v>
+        <v>68.07626625241355</v>
       </c>
       <c r="D24" t="n">
-        <v>6.847077390021022</v>
+        <v>7.066198292039508</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.3062612368371</v>
+        <v>67.33227282577569</v>
       </c>
       <c r="D25" t="n">
-        <v>6.992518939547297</v>
+        <v>6.592237877784868</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.42249277756298</v>
+        <v>66.56536358417071</v>
       </c>
       <c r="D26" t="n">
-        <v>6.596615983710998</v>
+        <v>6.581910715745292</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.81136608017248</v>
+        <v>65.78575414585133</v>
       </c>
       <c r="D27" t="n">
-        <v>6.69480604274921</v>
+        <v>6.223365081162548</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.28520503594803</v>
+        <v>64.20036391001871</v>
       </c>
       <c r="D28" t="n">
-        <v>7.054388991358552</v>
+        <v>6.087185971296397</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.86848113861208</v>
+        <v>61.54997971459297</v>
       </c>
       <c r="D29" t="n">
-        <v>7.190653375235885</v>
+        <v>6.261216393740588</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.46051179895685</v>
+        <v>61.51971783616561</v>
       </c>
       <c r="D30" t="n">
-        <v>7.558547819587269</v>
+        <v>7.464774887736096</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>59.91354802207417</v>
+        <v>60.19466860617109</v>
       </c>
       <c r="D31" t="n">
-        <v>7.892527972083568</v>
+        <v>7.262349503601333</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.06553190555451</v>
+        <v>59.55273713620561</v>
       </c>
       <c r="D32" t="n">
-        <v>7.588019400409674</v>
+        <v>7.536895428784417</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.72106528012934</v>
+        <v>59.6092771958047</v>
       </c>
       <c r="D33" t="n">
-        <v>7.340124299822837</v>
+        <v>6.708501340409518</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.67760757572491</v>
+        <v>56.87910603589808</v>
       </c>
       <c r="D34" t="n">
-        <v>6.766744753887841</v>
+        <v>6.503235206953873</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.72041309536681</v>
+        <v>57.34176775735088</v>
       </c>
       <c r="D35" t="n">
-        <v>6.872150905090063</v>
+        <v>6.976902153970738</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.24673185834242</v>
+        <v>56.21406617559072</v>
       </c>
       <c r="D36" t="n">
-        <v>7.427581729386179</v>
+        <v>6.909487610566122</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.28816512879104</v>
+        <v>54.70303966346819</v>
       </c>
       <c r="D37" t="n">
-        <v>6.515258217141313</v>
+        <v>6.969040965624735</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.82813479156314</v>
+        <v>53.22226195031506</v>
       </c>
       <c r="D38" t="n">
-        <v>7.334769462416807</v>
+        <v>7.6922468834376</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.83810051148834</v>
+        <v>52.73001431596045</v>
       </c>
       <c r="D39" t="n">
-        <v>6.709757359174413</v>
+        <v>7.263288130178919</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>50.89730400584325</v>
+        <v>51.29754733852236</v>
       </c>
       <c r="D40" t="n">
-        <v>6.333202545257005</v>
+        <v>7.306495047034711</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.29634872388292</v>
+        <v>50.06875442862042</v>
       </c>
       <c r="D41" t="n">
-        <v>7.064099726933591</v>
+        <v>6.729892037512173</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.19377325329434</v>
+        <v>51.14032471265241</v>
       </c>
       <c r="D42" t="n">
-        <v>7.218450431447161</v>
+        <v>6.820419729769298</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.3004145353776</v>
+        <v>47.77542024153103</v>
       </c>
       <c r="D43" t="n">
-        <v>7.915789339573578</v>
+        <v>6.890578219772268</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.15492689268795</v>
+        <v>47.82269878906592</v>
       </c>
       <c r="D44" t="n">
-        <v>6.583004723983024</v>
+        <v>6.919288258361246</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.44583812699225</v>
+        <v>48.35577553126226</v>
       </c>
       <c r="D45" t="n">
-        <v>5.781747434215123</v>
+        <v>5.986743444607328</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.22004403889215</v>
+        <v>46.42569653638695</v>
       </c>
       <c r="D46" t="n">
-        <v>7.248780604064462</v>
+        <v>7.531049345990076</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.28291365259507</v>
+        <v>45.6776098213006</v>
       </c>
       <c r="D47" t="n">
-        <v>7.57915727408331</v>
+        <v>7.2501305798861</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.49381059717734</v>
+        <v>45.27613601136984</v>
       </c>
       <c r="D48" t="n">
-        <v>7.462197384201504</v>
+        <v>6.77264308470253</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.3390903275528</v>
+        <v>42.2799961879773</v>
       </c>
       <c r="D49" t="n">
-        <v>8.323300916541504</v>
+        <v>6.405272549388989</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.04046364797053</v>
+        <v>41.88250970045045</v>
       </c>
       <c r="D50" t="n">
-        <v>7.253583104089796</v>
+        <v>7.728814652201582</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.90003671259589</v>
+        <v>40.88347458263472</v>
       </c>
       <c r="D51" t="n">
-        <v>7.866801304013679</v>
+        <v>6.75392497226952</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.47913535969355</v>
+        <v>38.45325076785727</v>
       </c>
       <c r="D52" t="n">
-        <v>7.748517792775645</v>
+        <v>6.369763810598082</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.48186553989561</v>
+        <v>39.11367411689094</v>
       </c>
       <c r="D53" t="n">
-        <v>6.935593816371018</v>
+        <v>6.494968532997073</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.66675697019897</v>
+        <v>37.8724112247673</v>
       </c>
       <c r="D54" t="n">
-        <v>6.954113433644134</v>
+        <v>6.546409123530509</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.85147364740101</v>
+        <v>36.42484997707201</v>
       </c>
       <c r="D55" t="n">
-        <v>6.852604711262829</v>
+        <v>7.396577773234341</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.5684809954775</v>
+        <v>36.47204597530487</v>
       </c>
       <c r="D56" t="n">
-        <v>6.2556050738397</v>
+        <v>7.399398463743101</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.25647955611139</v>
+        <v>35.88038429703711</v>
       </c>
       <c r="D57" t="n">
-        <v>6.605288647497017</v>
+        <v>7.907842065978644</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>35.12292231465735</v>
+        <v>34.63853101837883</v>
       </c>
       <c r="D58" t="n">
-        <v>7.499124565122218</v>
+        <v>7.105287358482201</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>34.06915285743926</v>
+        <v>32.55021567729035</v>
       </c>
       <c r="D59" t="n">
-        <v>7.698723674755084</v>
+        <v>6.650893995375874</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>30.80884758347786</v>
+        <v>29.32216269090563</v>
       </c>
       <c r="D60" t="n">
-        <v>7.065010778303519</v>
+        <v>7.715564953441495</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>29.68850689288747</v>
+        <v>31.13390929857258</v>
       </c>
       <c r="D61" t="n">
-        <v>6.124994820413023</v>
+        <v>6.023705474942607</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.42750437782915</v>
+        <v>30.24417493897988</v>
       </c>
       <c r="D62" t="n">
-        <v>7.827212944408895</v>
+        <v>7.639306135196585</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.60542125092905</v>
+        <v>28.39509256803231</v>
       </c>
       <c r="D63" t="n">
-        <v>8.595695071160073</v>
+        <v>8.306257601531566</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.18639982377914</v>
+        <v>27.77331436702182</v>
       </c>
       <c r="D64" t="n">
-        <v>7.686068593965367</v>
+        <v>6.801785160338985</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>25.08380109629282</v>
+        <v>26.49333674922571</v>
       </c>
       <c r="D65" t="n">
-        <v>6.801125818300952</v>
+        <v>7.482597175461019</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>27.78424345147918</v>
+        <v>27.04361847742098</v>
       </c>
       <c r="D66" t="n">
-        <v>7.307098431035557</v>
+        <v>8.870246087130008</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.74877464990594</v>
+        <v>25.44997365130844</v>
       </c>
       <c r="D67" t="n">
-        <v>7.971089016476464</v>
+        <v>6.981120849745097</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.55083479382011</v>
+        <v>23.72970486463947</v>
       </c>
       <c r="D68" t="n">
-        <v>7.588175064962873</v>
+        <v>7.229352312614815</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.16068213714108</v>
+        <v>22.59958516637733</v>
       </c>
       <c r="D69" t="n">
-        <v>7.528272270224829</v>
+        <v>7.103503621210995</v>
       </c>
     </row>
   </sheetData>
